--- a/北陸鉄道石川線/Data/曲線管理表.xlsx
+++ b/北陸鉄道石川線/Data/曲線管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Documents\GitHub\BVE_hokutetsu\北陸鉄道石川線\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FE60167-7A69-4BBC-95DB-B23D776CE1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271E482-00AC-4BA5-BCB3-B4F6163DE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{4A985E57-CB5D-421B-840B-D42C211C1DAE}"/>
   </bookViews>
@@ -952,9 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E9846D-5BE6-424A-AF20-9DA87CA1CA24}">
   <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1373,11 +1371,15 @@
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E13" s="3">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3">
+        <v>95</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>102.87794469280661</v>
       </c>
       <c r="I13" s="5">
         <v>11</v>

--- a/北陸鉄道石川線/Data/曲線管理表.xlsx
+++ b/北陸鉄道石川線/Data/曲線管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Documents\GitHub\BVE_hokutetsu\北陸鉄道石川線\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271E482-00AC-4BA5-BCB3-B4F6163DE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201673FC-C310-4F96-BF10-F67A6FBFF26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{4A985E57-CB5D-421B-840B-D42C211C1DAE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>弦長D(m)</t>
     <rPh sb="0" eb="1">
@@ -500,6 +500,10 @@
     <rPh sb="5" eb="7">
       <t>ブンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.8-1.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -952,7 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E9846D-5BE6-424A-AF20-9DA87CA1CA24}">
   <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1074,10 +1080,12 @@
       <c r="E4" s="3">
         <v>195</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G67" si="0">2*$E4*ASIN($F4/(2*$E4))</f>
-        <v>0</v>
+        <v>20.00877655303794</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -1103,7 +1111,9 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
